--- a/app/Http/Controllers/hareport/all.xlsx
+++ b/app/Http/Controllers/hareport/all.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="618">
   <si>
     <t>SALTP</t>
   </si>
@@ -1810,6 +1810,69 @@
   </si>
   <si>
     <t>RU20177126</t>
+  </si>
+  <si>
+    <t>MI1509300002</t>
+  </si>
+  <si>
+    <t>20150930</t>
+  </si>
+  <si>
+    <t>RU20176968</t>
+  </si>
+  <si>
+    <t>NI1509300007</t>
+  </si>
+  <si>
+    <t>RU20176967</t>
+  </si>
+  <si>
+    <t>1103006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臺北市立聯合醫院(忠孝)                                          </t>
+  </si>
+  <si>
+    <t>SI1509300002</t>
+  </si>
+  <si>
+    <t>RU20177130</t>
+  </si>
+  <si>
+    <t>3119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寬懷藥局                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">900屏東市中山路40號                          </t>
+  </si>
+  <si>
+    <t>SI1509300003</t>
+  </si>
+  <si>
+    <t>RU20177131</t>
+  </si>
+  <si>
+    <t>3112124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泰祥診所                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">920屏東縣潮州鎮新生路111號3樓                </t>
+  </si>
+  <si>
+    <t>SI1509300004</t>
+  </si>
+  <si>
+    <t>RU20177132</t>
+  </si>
+  <si>
+    <t>SI1509300005</t>
+  </si>
+  <si>
+    <t>RU20177133</t>
   </si>
 </sst>
 </file>
@@ -2183,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O128"/>
+  <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" workbookViewId="0">
-      <selection activeCell="P129" sqref="P129"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8175,6 +8238,288 @@
       </c>
       <c r="O128" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" t="s">
+        <v>597</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>371</v>
+      </c>
+      <c r="E129" t="s">
+        <v>598</v>
+      </c>
+      <c r="F129">
+        <v>60</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>172800</v>
+      </c>
+      <c r="I129">
+        <v>156800</v>
+      </c>
+      <c r="J129" t="s">
+        <v>81</v>
+      </c>
+      <c r="K129" t="s">
+        <v>599</v>
+      </c>
+      <c r="L129" t="s">
+        <v>374</v>
+      </c>
+      <c r="M129" t="s">
+        <v>21</v>
+      </c>
+      <c r="N129" t="s">
+        <v>375</v>
+      </c>
+      <c r="O129" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" t="s">
+        <v>600</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" t="s">
+        <v>598</v>
+      </c>
+      <c r="F130">
+        <v>55</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>39600</v>
+      </c>
+      <c r="I130">
+        <v>14843</v>
+      </c>
+      <c r="J130" t="s">
+        <v>226</v>
+      </c>
+      <c r="K130" t="s">
+        <v>601</v>
+      </c>
+      <c r="L130" t="s">
+        <v>602</v>
+      </c>
+      <c r="M130" t="s">
+        <v>21</v>
+      </c>
+      <c r="N130" t="s">
+        <v>603</v>
+      </c>
+      <c r="O130" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" t="s">
+        <v>604</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" t="s">
+        <v>598</v>
+      </c>
+      <c r="F131">
+        <v>60</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>19429</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" t="s">
+        <v>605</v>
+      </c>
+      <c r="L131" t="s">
+        <v>606</v>
+      </c>
+      <c r="M131" t="s">
+        <v>21</v>
+      </c>
+      <c r="N131" t="s">
+        <v>607</v>
+      </c>
+      <c r="O131" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" t="s">
+        <v>609</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" t="s">
+        <v>598</v>
+      </c>
+      <c r="F132">
+        <v>50</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>16190</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>18</v>
+      </c>
+      <c r="K132" t="s">
+        <v>610</v>
+      </c>
+      <c r="L132" t="s">
+        <v>611</v>
+      </c>
+      <c r="M132" t="s">
+        <v>21</v>
+      </c>
+      <c r="N132" t="s">
+        <v>612</v>
+      </c>
+      <c r="O132" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" t="s">
+        <v>614</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" t="s">
+        <v>598</v>
+      </c>
+      <c r="F133">
+        <v>30</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>9714</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" t="s">
+        <v>615</v>
+      </c>
+      <c r="L133" t="s">
+        <v>83</v>
+      </c>
+      <c r="M133" t="s">
+        <v>21</v>
+      </c>
+      <c r="N133" t="s">
+        <v>84</v>
+      </c>
+      <c r="O133" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s">
+        <v>616</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" t="s">
+        <v>598</v>
+      </c>
+      <c r="F134">
+        <v>100</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>38476</v>
+      </c>
+      <c r="I134">
+        <v>16667</v>
+      </c>
+      <c r="J134" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" t="s">
+        <v>617</v>
+      </c>
+      <c r="L134" t="s">
+        <v>281</v>
+      </c>
+      <c r="M134" t="s">
+        <v>21</v>
+      </c>
+      <c r="N134" t="s">
+        <v>282</v>
+      </c>
+      <c r="O134" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
